--- a/NV_Poliakov/moduls/1С.xlsx
+++ b/NV_Poliakov/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390180C6-C953-4651-8D13-CCCE366E5A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF367EF-BE46-43C1-BA61-57A85ED0B3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$74</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,9 +34,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>1С</t>
+  </si>
+  <si>
+    <t>МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О_50с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сос п/о мгс  1.5*3</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 1.5*4_50с</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 1.5*4_А_50с</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о мгс 2*4</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ сос ц/о мгс 0.41кг 8шт.</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт_50с</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</t>
+  </si>
+  <si>
+    <t>С ГОВЯДИНОЙ ОРИГИН. сар б/о мгс 1*3_45с</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ ПМ САР Б/О МГС 1*3 45с</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сар б/о мгс  1*3_О_45с</t>
+  </si>
+  <si>
+    <t>МЯСНАЯ СО ШПИКОМ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может вар п/о.</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>МЯСНАЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>МЯСНАЯ Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ в/к в/у_45с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.</t>
+  </si>
+  <si>
+    <t>САЛЯМИ Папа может п/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ФИРМЕННАЯ С ИНДЕЙКОЙ п/о</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МЯСНАЯ Папа может п/о</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МЯСНАЯ Папа может п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>БЕКОН Останкино с/к с/н в/у 1/180_50с</t>
+  </si>
+  <si>
+    <t>СВИНИНА ПО-ДОМ. к/в мл/к в/у 0.3кг_50с</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ вар п/о_Л</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>РУССКАЯ ГОСТ вар п/о</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ Останкино вар п/о</t>
+  </si>
+  <si>
+    <t>МОЛОЧНАЯ Останкино вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>ДОМАШНИЙ РЕЦЕПТ Коровино 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>ДОМАШНИЙ РЕЦЕПТ Коровино вар п/о</t>
+  </si>
+  <si>
+    <t>ДОМАШНИЙ РЕЦЕПТ СО ШПИК.Коровино вар п/о</t>
+  </si>
+  <si>
+    <t>ДОМАШНИЙ РЕЦЕПТ СО ШПИКОМ Коровино 0.5кг</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МРАМОРНАЯ в/у срез 0.3кг 6шт_45с</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.С ИНДЕЙКОЙ Папа может п/о 400*6</t>
+  </si>
+  <si>
+    <t>ДЫМОВИЦА ИЗ ЛОПАТКИ ПМ к/в с/н в/у 1/150</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг 8шт.</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ Папа может с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/250*8_120c</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может с/к в/у_Л</t>
+  </si>
+  <si>
+    <t>ПОСОЛЬСКАЯ Папа может с/к в/у</t>
+  </si>
+  <si>
+    <t>ПРАЗДНИЧНАЯ с/к в/с дек.спец.мгс</t>
+  </si>
+  <si>
+    <t>ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>БУРГУНДИЯ Папа может с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>ОСТАНКИНСКАЯ в/к в/у</t>
+  </si>
+  <si>
+    <t>ОСТАНКИНСКАЯ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>НЕАПОЛИТАНСКИЙ ДУЭТ с/к с/н мгс 1/90</t>
+  </si>
+  <si>
+    <t>ОХОТНИЧЬЯ ПМ с/к с/н в/у 1/100 10шт.</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к с/н в/у 1/100*8_60с</t>
+  </si>
+  <si>
+    <t>ПОСОЛЬСКАЯ ПМ с/к с/н в/у 1/100 10шт</t>
+  </si>
+  <si>
+    <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120_60с</t>
+  </si>
+  <si>
+    <t>КЛАССИЧЕСКИЕ Папа может сар б/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.33кг</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к в/у</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/150_60с</t>
+  </si>
+  <si>
+    <t>САЛЯМИ Папа может с/к в/у 1/250 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОРЕХОВЫЙ ПМ в/к в/у 0.31кг 8шт.</t>
+  </si>
+  <si>
+    <t>ЧЕСНОЧНАЯ ПМ п/к в/у 0.35кг 8шт_50с</t>
+  </si>
+  <si>
+    <t>С СЫРОМ Папа может сос ц/о мгс 0.4кг 6шт</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг_50с</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг_50с</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МРАМОРНАЯ в/у_С_45с</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.ИЗ ЛОПАТКИ Папа может п/о_HRC</t>
+  </si>
+  <si>
+    <t>ДОКТОРСКАЯ ГОСТ вар б/о мгс</t>
+  </si>
+  <si>
+    <t>ХОТ-ДОГ Папа может сос п/о мгс 0.35кг</t>
   </si>
 </sst>
 </file>
@@ -100,11 +346,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Arial10px" xfId="2" xr:uid="{C0A75BEE-14F2-4260-AF17-AC512850AE79}"/>
@@ -387,17 +632,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
@@ -405,18 +650,920 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="1">
         <v>2</v>
       </c>
       <c r="C1">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1001022657075</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1001022657075</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1001022726303</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1001022726303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1001022467082</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1001022467082</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1001022377070</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1001022377070</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1001024976829</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1001024976829</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1001020846762</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1001020846762</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1001022377066</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1001022377066</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1001022246713</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1001022246713</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1001033856608</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1001033856608</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1001031076527</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1001031076527</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1001032736550</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1001032736550</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1001012634574</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1001012634574</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1001012505851</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1001012505851</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1001012456498</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1001012456498</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1001012564813</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1001012564813</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1001012484063</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1001012484063</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1001012566392</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1001012566392</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1001012506353</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1001012506353</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1001012486333</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1001012486333</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1001303636415</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1001303636415</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1001051875544</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1001051875544</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1001301876697</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1001301876697</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1001303106773</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1001303106773</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1001304506684</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1001304506684</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1001094966025</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1001094966025</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1001092485452</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1001092485452</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1001094053215</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1001094053215</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1001223297103</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1001223297103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1001084217090</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1001084217090</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1001010014558</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1001010014558</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1001010016324</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1001010016324</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1001010014561</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1001010014561</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1001010032675</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1001010032675</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1001010027125</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1001010027125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1001010027126</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1001010027126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1001012816340</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1001012816340</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1001015646861</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1001015646861</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1001015706862</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1001015706862</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1001012816341</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1001012816341</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1001092436495</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1001092436495</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1001093345495</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1001093345495</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1001220226208</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1001220226208</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1001300366790</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1001300366790</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>1001300366807</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1001300366807</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1001304496701</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1001304496701</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1001061975706</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1001061975706</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>1001060763287</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1001060763287</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1001060764993</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1001060764993</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1001062505483</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1001062505483</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>1001062504117</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1001062504117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1001063145708</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1001063145708</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1001060720614</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1001060720614</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1001062475707</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1001062475707</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1001303636794</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1001303636794</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1001303636793</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1001303636793</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1001063656967</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1001063656967</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>1001302596796</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1001302596796</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1001302596795</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1001302596795</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1001205376221</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1001205376221</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1001200756557</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1001200756557</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1001201976454</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1001201976454</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1001203146834</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1001203146834</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1001193115682</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1001193115682</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>1001035937001</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1001035937001</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1001025766909</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1001025766909</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>1001025507077</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1001025507077</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1001022556069</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1001022556069</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>1001061971146</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1001061971146</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>1001190765679</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1001190765679</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>1001063106937</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1001063106937</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>1001305196564</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1001305196564</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1001302347177</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1001302347177</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1001025176475</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1001025176475</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1001300387157</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1001300387157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1001303987166</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1001303987166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1001300387154</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1001300387154</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1001302277173</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1001302277173</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>1001303987169</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1001303987169</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>1001092436472</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1001092436472</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>1001092674584</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1001092674584</v>
+      </c>
+      <c r="C81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>1001010016978</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1001010016978</v>
+      </c>
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>1001025166776</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1001025166776</v>
+      </c>
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C74" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NV_Poliakov/moduls/1С.xlsx
+++ b/NV_Poliakov/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF367EF-BE46-43C1-BA61-57A85ED0B3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2B034-C227-46ED-A0A3-4F30A0CB96BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>1С</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>ХОТ-ДОГ Папа может сос п/о мгс 0.35кг</t>
+  </si>
+  <si>
+    <t>СЕМЕЙНАЯ вар п/о</t>
   </si>
 </sst>
 </file>
@@ -632,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,6 +1565,17 @@
         <v>82</v>
       </c>
     </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>1001015496769</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1001015496769</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C74" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NV_Poliakov/moduls/1С.xlsx
+++ b/NV_Poliakov/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2B034-C227-46ED-A0A3-4F30A0CB96BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE56E0C-E257-4C93-BA4D-4D8A8FFCA61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>1С</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>СЕМЕЙНАЯ вар п/о</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0.31кг</t>
   </si>
 </sst>
 </file>
@@ -635,11 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,6 +1579,17 @@
         <v>83</v>
       </c>
     </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>1001305316565</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1001305316565</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C74" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NV_Poliakov/moduls/1С.xlsx
+++ b/NV_Poliakov/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE56E0C-E257-4C93-BA4D-4D8A8FFCA61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A547A1D4-320A-4A1B-B404-281156A3D3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$88</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>1С</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0.31кг</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>САЛЯМИ Папа может п/к в/у 0.28кг_209к</t>
+  </si>
+  <si>
+    <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
   </si>
 </sst>
 </file>
@@ -638,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,8 +1599,41 @@
         <v>84</v>
       </c>
     </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1001012426268</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1001012426268</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>1001303107241</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1001303107241</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>1001022246661</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1001022246661</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C74" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C88" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NV_Poliakov/moduls/1С.xlsx
+++ b/NV_Poliakov/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A547A1D4-320A-4A1B-B404-281156A3D3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227CE211-DBEB-4DAD-B838-19F91D418216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>1С</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 1.5*4_Маяк</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.МРАМОРНАЯ в/у_45с</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Папа Может п/к в/у 0.31кг 8шт.</t>
+  </si>
+  <si>
+    <t>ЮБИЛЕЙНАЯ с/к в/у_Л</t>
+  </si>
+  <si>
+    <t>МРАМОРНАЯ ПРЕМИУМ в/к в/у 0.33кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -647,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,6 +1644,50 @@
         <v>87</v>
       </c>
     </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>1001092436470</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1001092436470</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>1001303636665</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1001303636665</v>
+      </c>
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>1001062474154</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1001062474154</v>
+      </c>
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>1001304527144</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1001304527144</v>
+      </c>
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C88" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NV_Poliakov/moduls/1С.xlsx
+++ b/NV_Poliakov/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227CE211-DBEB-4DAD-B838-19F91D418216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54F72B2-CB51-4A1E-967E-773BC979EEC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>1С</t>
   </si>
@@ -310,6 +310,36 @@
   </si>
   <si>
     <t>МРАМОРНАЯ ПРЕМИУМ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ ПМ п/к в/у 0.31кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.84кг</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у 0.84кг</t>
+  </si>
+  <si>
+    <t>МРАМОРНАЯ ПРЕМИУМ в/к в/у</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ С АРОМ.ТРАВ. в/к в/у 0.31кг_209к</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг_209к</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОРЕХОВЫЙ в/к в/у 0.31кг_209к</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ в/к в/у 0.28кг_209к</t>
   </si>
 </sst>
 </file>
@@ -659,11 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,6 +1718,116 @@
         <v>91</v>
       </c>
     </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>1001303637233</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1001303637233</v>
+      </c>
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>1001303637149</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1001303637149</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>1001300367133</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1001300367133</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>1001303637131</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1001303637131</v>
+      </c>
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>1001304527146</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1001304527146</v>
+      </c>
+      <c r="C97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>1001305317240</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1001305317240</v>
+      </c>
+      <c r="C98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>1001302277232</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1001302277232</v>
+      </c>
+      <c r="C99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>1001304497237</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1001304497237</v>
+      </c>
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>1001305197238</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1001305197238</v>
+      </c>
+      <c r="C101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>1001304507236</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1001304507236</v>
+      </c>
+      <c r="C102" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C88" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
